--- a/Mock_Data/Working_extras.xlsx
+++ b/Mock_Data/Working_extras.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83216ade753ec4a/Desktop/Mock_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\ΕΜΠ\ΡΟΗ Λ\ΒΑΣΕΙΣ ΔΕΔΟΜΕΝΩΝ\ΕΡΓΑΣΙΑ\DB_Project_ELIDEK_2022\Mock_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="982" documentId="11_649026F4D009356F3AFDB80C3A2C459EA887A224" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{833740C2-2742-42B5-814B-F050F647EACC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BD2BF0-FEB7-40A1-89C4-5AF02F85D4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="31695" windowHeight="20265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="1335" windowWidth="31695" windowHeight="20265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:S1441"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,12 +796,8 @@
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>95</v>
-      </c>
-      <c r="B20" s="4">
-        <v>79</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -815,12 +811,8 @@
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>64</v>
-      </c>
-      <c r="B21" s="4">
-        <v>80</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -834,12 +826,8 @@
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>51</v>
-      </c>
-      <c r="B22" s="4">
-        <v>81</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -853,12 +841,8 @@
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>87</v>
-      </c>
-      <c r="B23" s="4">
-        <v>82</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -872,12 +856,8 @@
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4">
-        <v>83</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
